--- a/02-output/wine_country_stats/Q2E_South Africa.xlsx
+++ b/02-output/wine_country_stats/Q2E_South Africa.xlsx
@@ -25,52 +25,52 @@
     <t>price mean</t>
   </si>
   <si>
+    <t>price std</t>
+  </si>
+  <si>
+    <t>price min</t>
+  </si>
+  <si>
+    <t>price 25%</t>
+  </si>
+  <si>
+    <t>price 50%</t>
+  </si>
+  <si>
+    <t>price 75%</t>
+  </si>
+  <si>
+    <t>price max</t>
+  </si>
+  <si>
     <t>price median</t>
   </si>
   <si>
-    <t>price std</t>
-  </si>
-  <si>
-    <t>price min</t>
-  </si>
-  <si>
-    <t>price 25%</t>
-  </si>
-  <si>
-    <t>price 50%</t>
-  </si>
-  <si>
-    <t>price 75%</t>
-  </si>
-  <si>
-    <t>price max</t>
-  </si>
-  <si>
     <t>points count</t>
   </si>
   <si>
     <t>points mean</t>
   </si>
   <si>
+    <t>points std</t>
+  </si>
+  <si>
+    <t>points min</t>
+  </si>
+  <si>
+    <t>points 25%</t>
+  </si>
+  <si>
+    <t>points 50%</t>
+  </si>
+  <si>
+    <t>points 75%</t>
+  </si>
+  <si>
+    <t>points max</t>
+  </si>
+  <si>
     <t>points median</t>
-  </si>
-  <si>
-    <t>points std</t>
-  </si>
-  <si>
-    <t>points min</t>
-  </si>
-  <si>
-    <t>points 25%</t>
-  </si>
-  <si>
-    <t>points 50%</t>
-  </si>
-  <si>
-    <t>points 75%</t>
-  </si>
-  <si>
-    <t>points max</t>
   </si>
   <si>
     <t>Bot River</t>
@@ -561,16 +561,15 @@
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="10" width="9.7109375" customWidth="1"/>
+    <col min="3" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
     <col min="11" max="11" width="3.7109375" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" customWidth="1"/>
     <col min="13" max="13" width="17.7109375" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" customWidth="1"/>
-    <col min="16" max="20" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" customWidth="1"/>
+    <col min="15" max="19" width="10.7109375" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -644,25 +643,25 @@
         <v>26</v>
       </c>
       <c r="D2">
+        <v>10.8397416943394</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2">
         <v>20</v>
-      </c>
-      <c r="E2">
-        <v>10.8397416943394</v>
-      </c>
-      <c r="F2">
-        <v>15</v>
       </c>
       <c r="G2">
         <v>20</v>
       </c>
       <c r="H2">
+        <v>35</v>
+      </c>
+      <c r="I2">
+        <v>40</v>
+      </c>
+      <c r="J2">
         <v>20</v>
-      </c>
-      <c r="I2">
-        <v>35</v>
-      </c>
-      <c r="J2">
-        <v>40</v>
       </c>
       <c r="L2">
         <v>5</v>
@@ -671,13 +670,13 @@
         <v>89</v>
       </c>
       <c r="N2">
+        <v>2.121320343559642</v>
+      </c>
+      <c r="O2">
+        <v>86</v>
+      </c>
+      <c r="P2">
         <v>89</v>
-      </c>
-      <c r="O2">
-        <v>2.121320343559642</v>
-      </c>
-      <c r="P2">
-        <v>86</v>
       </c>
       <c r="Q2">
         <v>89</v>
@@ -686,10 +685,10 @@
         <v>89</v>
       </c>
       <c r="S2">
+        <v>92</v>
+      </c>
+      <c r="T2">
         <v>89</v>
-      </c>
-      <c r="T2">
-        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -702,7 +701,7 @@
       <c r="C3">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>10</v>
       </c>
       <c r="F3">
@@ -726,7 +725,7 @@
       <c r="M3">
         <v>86</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>86</v>
       </c>
       <c r="P3">
@@ -756,10 +755,10 @@
         <v>18.66666666666667</v>
       </c>
       <c r="D4">
+        <v>1.154700538379251</v>
+      </c>
+      <c r="E4">
         <v>18</v>
-      </c>
-      <c r="E4">
-        <v>1.154700538379251</v>
       </c>
       <c r="F4">
         <v>18</v>
@@ -768,13 +767,13 @@
         <v>18</v>
       </c>
       <c r="H4">
+        <v>19</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4">
         <v>18</v>
-      </c>
-      <c r="I4">
-        <v>19</v>
-      </c>
-      <c r="J4">
-        <v>20</v>
       </c>
       <c r="L4">
         <v>3</v>
@@ -783,16 +782,16 @@
         <v>88.66666666666667</v>
       </c>
       <c r="N4">
+        <v>0.5773502691896257</v>
+      </c>
+      <c r="O4">
+        <v>88</v>
+      </c>
+      <c r="P4">
+        <v>88.5</v>
+      </c>
+      <c r="Q4">
         <v>89</v>
-      </c>
-      <c r="O4">
-        <v>0.5773502691896257</v>
-      </c>
-      <c r="P4">
-        <v>88</v>
-      </c>
-      <c r="Q4">
-        <v>88.5</v>
       </c>
       <c r="R4">
         <v>89</v>
@@ -814,7 +813,7 @@
       <c r="C5">
         <v>25</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>25</v>
       </c>
       <c r="F5">
@@ -838,7 +837,7 @@
       <c r="M5">
         <v>90</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>90</v>
       </c>
       <c r="P5">
@@ -868,25 +867,25 @@
         <v>42.33333333333334</v>
       </c>
       <c r="D6">
+        <v>20.52640575778754</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>31</v>
+      </c>
+      <c r="G6">
         <v>37</v>
       </c>
-      <c r="E6">
-        <v>20.52640575778754</v>
-      </c>
-      <c r="F6">
-        <v>25</v>
-      </c>
-      <c r="G6">
-        <v>31</v>
-      </c>
       <c r="H6">
+        <v>51</v>
+      </c>
+      <c r="I6">
+        <v>65</v>
+      </c>
+      <c r="J6">
         <v>37</v>
-      </c>
-      <c r="I6">
-        <v>51</v>
-      </c>
-      <c r="J6">
-        <v>65</v>
       </c>
       <c r="L6">
         <v>3</v>
@@ -895,25 +894,25 @@
         <v>90.66666666666667</v>
       </c>
       <c r="N6">
+        <v>1.527525231651947</v>
+      </c>
+      <c r="O6">
+        <v>89</v>
+      </c>
+      <c r="P6">
+        <v>90</v>
+      </c>
+      <c r="Q6">
         <v>91</v>
       </c>
-      <c r="O6">
-        <v>1.527525231651947</v>
-      </c>
-      <c r="P6">
-        <v>89</v>
-      </c>
-      <c r="Q6">
-        <v>90</v>
-      </c>
       <c r="R6">
+        <v>91.5</v>
+      </c>
+      <c r="S6">
+        <v>92</v>
+      </c>
+      <c r="T6">
         <v>91</v>
-      </c>
-      <c r="S6">
-        <v>91.5</v>
-      </c>
-      <c r="T6">
-        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -926,7 +925,7 @@
       <c r="C7">
         <v>26</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>26</v>
       </c>
       <c r="F7">
@@ -950,7 +949,7 @@
       <c r="M7">
         <v>85</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>85</v>
       </c>
       <c r="P7">
@@ -980,25 +979,25 @@
         <v>26</v>
       </c>
       <c r="D8">
+        <v>8.740709353364863</v>
+      </c>
+      <c r="E8">
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <v>19</v>
+      </c>
+      <c r="G8">
         <v>25.5</v>
       </c>
-      <c r="E8">
-        <v>8.740709353364863</v>
-      </c>
-      <c r="F8">
-        <v>17</v>
-      </c>
-      <c r="G8">
-        <v>19</v>
-      </c>
       <c r="H8">
+        <v>29.75</v>
+      </c>
+      <c r="I8">
+        <v>40</v>
+      </c>
+      <c r="J8">
         <v>25.5</v>
-      </c>
-      <c r="I8">
-        <v>29.75</v>
-      </c>
-      <c r="J8">
-        <v>40</v>
       </c>
       <c r="L8">
         <v>6</v>
@@ -1007,25 +1006,25 @@
         <v>88.16666666666667</v>
       </c>
       <c r="N8">
+        <v>2.31660671385254</v>
+      </c>
+      <c r="O8">
+        <v>86</v>
+      </c>
+      <c r="P8">
+        <v>86.25</v>
+      </c>
+      <c r="Q8">
         <v>87.5</v>
       </c>
-      <c r="O8">
-        <v>2.31660671385254</v>
-      </c>
-      <c r="P8">
-        <v>86</v>
-      </c>
-      <c r="Q8">
-        <v>86.25</v>
-      </c>
       <c r="R8">
+        <v>90.25</v>
+      </c>
+      <c r="S8">
+        <v>91</v>
+      </c>
+      <c r="T8">
         <v>87.5</v>
-      </c>
-      <c r="S8">
-        <v>90.25</v>
-      </c>
-      <c r="T8">
-        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1039,25 +1038,25 @@
         <v>18.6015625</v>
       </c>
       <c r="D9">
+        <v>10.72221907029224</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>11.75</v>
+      </c>
+      <c r="G9">
         <v>15</v>
       </c>
-      <c r="E9">
-        <v>10.72221907029224</v>
-      </c>
-      <c r="F9">
-        <v>9</v>
-      </c>
-      <c r="G9">
-        <v>11.75</v>
-      </c>
       <c r="H9">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <v>65</v>
+      </c>
+      <c r="J9">
         <v>15</v>
-      </c>
-      <c r="I9">
-        <v>20</v>
-      </c>
-      <c r="J9">
-        <v>65</v>
       </c>
       <c r="L9">
         <v>128</v>
@@ -1066,25 +1065,25 @@
         <v>87.34375</v>
       </c>
       <c r="N9">
+        <v>1.921439339104482</v>
+      </c>
+      <c r="O9">
+        <v>82</v>
+      </c>
+      <c r="P9">
+        <v>86</v>
+      </c>
+      <c r="Q9">
         <v>87</v>
       </c>
-      <c r="O9">
-        <v>1.921439339104482</v>
-      </c>
-      <c r="P9">
-        <v>82</v>
-      </c>
-      <c r="Q9">
-        <v>86</v>
-      </c>
       <c r="R9">
+        <v>89</v>
+      </c>
+      <c r="S9">
+        <v>92</v>
+      </c>
+      <c r="T9">
         <v>87</v>
-      </c>
-      <c r="S9">
-        <v>89</v>
-      </c>
-      <c r="T9">
-        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1098,25 +1097,25 @@
         <v>24.18181818181818</v>
       </c>
       <c r="D10">
+        <v>16.80883090928089</v>
+      </c>
+      <c r="E10">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+      <c r="G10">
         <v>20</v>
       </c>
-      <c r="E10">
-        <v>16.80883090928089</v>
-      </c>
-      <c r="F10">
-        <v>12</v>
-      </c>
-      <c r="G10">
-        <v>16</v>
-      </c>
       <c r="H10">
+        <v>21.5</v>
+      </c>
+      <c r="I10">
+        <v>90</v>
+      </c>
+      <c r="J10">
         <v>20</v>
-      </c>
-      <c r="I10">
-        <v>21.5</v>
-      </c>
-      <c r="J10">
-        <v>90</v>
       </c>
       <c r="L10">
         <v>22</v>
@@ -1125,25 +1124,25 @@
         <v>88.77272727272727</v>
       </c>
       <c r="N10">
-        <v>88</v>
+        <v>2.307994763174264</v>
       </c>
       <c r="O10">
-        <v>2.307994763174264</v>
+        <v>85</v>
       </c>
       <c r="P10">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q10">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R10">
-        <v>88</v>
+        <v>89.75</v>
       </c>
       <c r="S10">
-        <v>89.75</v>
+        <v>95</v>
       </c>
       <c r="T10">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1157,25 +1156,25 @@
         <v>16.66666666666667</v>
       </c>
       <c r="D11">
+        <v>5.573747990954261</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>14.25</v>
+      </c>
+      <c r="G11">
         <v>15</v>
       </c>
-      <c r="E11">
-        <v>5.573747990954261</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-      <c r="G11">
-        <v>14.25</v>
-      </c>
       <c r="H11">
+        <v>18.75</v>
+      </c>
+      <c r="I11">
+        <v>26</v>
+      </c>
+      <c r="J11">
         <v>15</v>
-      </c>
-      <c r="I11">
-        <v>18.75</v>
-      </c>
-      <c r="J11">
-        <v>26</v>
       </c>
       <c r="L11">
         <v>6</v>
@@ -1184,25 +1183,25 @@
         <v>86.5</v>
       </c>
       <c r="N11">
+        <v>1.048808848170152</v>
+      </c>
+      <c r="O11">
+        <v>85</v>
+      </c>
+      <c r="P11">
+        <v>86</v>
+      </c>
+      <c r="Q11">
         <v>86.5</v>
       </c>
-      <c r="O11">
-        <v>1.048808848170152</v>
-      </c>
-      <c r="P11">
-        <v>85</v>
-      </c>
-      <c r="Q11">
-        <v>86</v>
-      </c>
       <c r="R11">
+        <v>87</v>
+      </c>
+      <c r="S11">
+        <v>88</v>
+      </c>
+      <c r="T11">
         <v>86.5</v>
-      </c>
-      <c r="S11">
-        <v>87</v>
-      </c>
-      <c r="T11">
-        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1216,25 +1215,25 @@
         <v>22.5</v>
       </c>
       <c r="D12">
+        <v>3.535533905932738</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>21.25</v>
+      </c>
+      <c r="G12">
         <v>22.5</v>
       </c>
-      <c r="E12">
-        <v>3.535533905932738</v>
-      </c>
-      <c r="F12">
-        <v>20</v>
-      </c>
-      <c r="G12">
-        <v>21.25</v>
-      </c>
       <c r="H12">
+        <v>23.75</v>
+      </c>
+      <c r="I12">
+        <v>25</v>
+      </c>
+      <c r="J12">
         <v>22.5</v>
-      </c>
-      <c r="I12">
-        <v>23.75</v>
-      </c>
-      <c r="J12">
-        <v>25</v>
       </c>
       <c r="L12">
         <v>2</v>
@@ -1243,10 +1242,10 @@
         <v>84</v>
       </c>
       <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
         <v>84</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
       </c>
       <c r="P12">
         <v>84</v>
@@ -1275,25 +1274,25 @@
         <v>18.45454545454545</v>
       </c>
       <c r="D13">
+        <v>11.99469579742343</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>11.5</v>
+      </c>
+      <c r="G13">
         <v>13</v>
       </c>
-      <c r="E13">
-        <v>11.99469579742343</v>
-      </c>
-      <c r="F13">
-        <v>11</v>
-      </c>
-      <c r="G13">
-        <v>11.5</v>
-      </c>
       <c r="H13">
+        <v>21</v>
+      </c>
+      <c r="I13">
+        <v>51</v>
+      </c>
+      <c r="J13">
         <v>13</v>
-      </c>
-      <c r="I13">
-        <v>21</v>
-      </c>
-      <c r="J13">
-        <v>51</v>
       </c>
       <c r="L13">
         <v>11</v>
@@ -1302,25 +1301,25 @@
         <v>86.45454545454545</v>
       </c>
       <c r="N13">
+        <v>2.114882330704777</v>
+      </c>
+      <c r="O13">
+        <v>84</v>
+      </c>
+      <c r="P13">
+        <v>85</v>
+      </c>
+      <c r="Q13">
         <v>87</v>
       </c>
-      <c r="O13">
-        <v>2.114882330704777</v>
-      </c>
-      <c r="P13">
-        <v>84</v>
-      </c>
-      <c r="Q13">
-        <v>85</v>
-      </c>
       <c r="R13">
+        <v>87.5</v>
+      </c>
+      <c r="S13">
+        <v>91</v>
+      </c>
+      <c r="T13">
         <v>87</v>
-      </c>
-      <c r="S13">
-        <v>87.5</v>
-      </c>
-      <c r="T13">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1334,16 +1333,16 @@
         <v>13.33333333333333</v>
       </c>
       <c r="D14">
+        <v>2.886751345948129</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>12.5</v>
+      </c>
+      <c r="G14">
         <v>15</v>
-      </c>
-      <c r="E14">
-        <v>2.886751345948129</v>
-      </c>
-      <c r="F14">
-        <v>10</v>
-      </c>
-      <c r="G14">
-        <v>12.5</v>
       </c>
       <c r="H14">
         <v>15</v>
@@ -1361,16 +1360,16 @@
         <v>87.66666666666667</v>
       </c>
       <c r="N14">
-        <v>88</v>
+        <v>0.5773502691896257</v>
       </c>
       <c r="O14">
-        <v>0.5773502691896257</v>
+        <v>87</v>
       </c>
       <c r="P14">
-        <v>87</v>
+        <v>87.5</v>
       </c>
       <c r="Q14">
-        <v>87.5</v>
+        <v>88</v>
       </c>
       <c r="R14">
         <v>88</v>
@@ -1393,25 +1392,25 @@
         <v>30.29545454545455</v>
       </c>
       <c r="D15">
+        <v>18.63552439712995</v>
+      </c>
+      <c r="E15">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>18</v>
+      </c>
+      <c r="G15">
         <v>20.5</v>
       </c>
-      <c r="E15">
-        <v>18.63552439712995</v>
-      </c>
-      <c r="F15">
-        <v>12</v>
-      </c>
-      <c r="G15">
-        <v>18</v>
-      </c>
       <c r="H15">
+        <v>32.5</v>
+      </c>
+      <c r="I15">
+        <v>75</v>
+      </c>
+      <c r="J15">
         <v>20.5</v>
-      </c>
-      <c r="I15">
-        <v>32.5</v>
-      </c>
-      <c r="J15">
-        <v>75</v>
       </c>
       <c r="L15">
         <v>44</v>
@@ -1420,25 +1419,25 @@
         <v>88.20454545454545</v>
       </c>
       <c r="N15">
-        <v>88</v>
+        <v>1.935945721112846</v>
       </c>
       <c r="O15">
-        <v>1.935945721112846</v>
+        <v>85</v>
       </c>
       <c r="P15">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q15">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R15">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="S15">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="T15">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1452,25 +1451,25 @@
         <v>24</v>
       </c>
       <c r="D16">
+        <v>7.071067811865476</v>
+      </c>
+      <c r="E16">
+        <v>19</v>
+      </c>
+      <c r="F16">
+        <v>21.5</v>
+      </c>
+      <c r="G16">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>7.071067811865476</v>
-      </c>
-      <c r="F16">
-        <v>19</v>
-      </c>
-      <c r="G16">
-        <v>21.5</v>
-      </c>
       <c r="H16">
+        <v>26.5</v>
+      </c>
+      <c r="I16">
+        <v>29</v>
+      </c>
+      <c r="J16">
         <v>24</v>
-      </c>
-      <c r="I16">
-        <v>26.5</v>
-      </c>
-      <c r="J16">
-        <v>29</v>
       </c>
       <c r="L16">
         <v>2</v>
@@ -1479,25 +1478,25 @@
         <v>89.5</v>
       </c>
       <c r="N16">
+        <v>2.121320343559642</v>
+      </c>
+      <c r="O16">
+        <v>88</v>
+      </c>
+      <c r="P16">
+        <v>88.75</v>
+      </c>
+      <c r="Q16">
         <v>89.5</v>
       </c>
-      <c r="O16">
-        <v>2.121320343559642</v>
-      </c>
-      <c r="P16">
-        <v>88</v>
-      </c>
-      <c r="Q16">
-        <v>88.75</v>
-      </c>
       <c r="R16">
+        <v>90.25</v>
+      </c>
+      <c r="S16">
+        <v>91</v>
+      </c>
+      <c r="T16">
         <v>89.5</v>
-      </c>
-      <c r="S16">
-        <v>90.25</v>
-      </c>
-      <c r="T16">
-        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1511,25 +1510,25 @@
         <v>24.27272727272727</v>
       </c>
       <c r="D17">
+        <v>10.47528528163323</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>17.25</v>
+      </c>
+      <c r="G17">
         <v>20.5</v>
       </c>
-      <c r="E17">
-        <v>10.47528528163323</v>
-      </c>
-      <c r="F17">
-        <v>10</v>
-      </c>
-      <c r="G17">
-        <v>17.25</v>
-      </c>
       <c r="H17">
+        <v>29</v>
+      </c>
+      <c r="I17">
+        <v>47</v>
+      </c>
+      <c r="J17">
         <v>20.5</v>
-      </c>
-      <c r="I17">
-        <v>29</v>
-      </c>
-      <c r="J17">
-        <v>47</v>
       </c>
       <c r="L17">
         <v>22</v>
@@ -1538,25 +1537,25 @@
         <v>87.5</v>
       </c>
       <c r="N17">
+        <v>2.017778127403648</v>
+      </c>
+      <c r="O17">
+        <v>84</v>
+      </c>
+      <c r="P17">
+        <v>86</v>
+      </c>
+      <c r="Q17">
         <v>87</v>
       </c>
-      <c r="O17">
-        <v>2.017778127403648</v>
-      </c>
-      <c r="P17">
-        <v>84</v>
-      </c>
-      <c r="Q17">
-        <v>86</v>
-      </c>
       <c r="R17">
+        <v>89</v>
+      </c>
+      <c r="S17">
+        <v>91</v>
+      </c>
+      <c r="T17">
         <v>87</v>
-      </c>
-      <c r="S17">
-        <v>89</v>
-      </c>
-      <c r="T17">
-        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1570,25 +1569,25 @@
         <v>24.75</v>
       </c>
       <c r="D18">
+        <v>12.60621539823379</v>
+      </c>
+      <c r="E18">
+        <v>15</v>
+      </c>
+      <c r="F18">
+        <v>17.25</v>
+      </c>
+      <c r="G18">
         <v>20.5</v>
       </c>
-      <c r="E18">
-        <v>12.60621539823379</v>
-      </c>
-      <c r="F18">
-        <v>15</v>
-      </c>
-      <c r="G18">
-        <v>17.25</v>
-      </c>
       <c r="H18">
+        <v>28</v>
+      </c>
+      <c r="I18">
+        <v>43</v>
+      </c>
+      <c r="J18">
         <v>20.5</v>
-      </c>
-      <c r="I18">
-        <v>28</v>
-      </c>
-      <c r="J18">
-        <v>43</v>
       </c>
       <c r="L18">
         <v>4</v>
@@ -1597,25 +1596,25 @@
         <v>89</v>
       </c>
       <c r="N18">
+        <v>1.154700538379251</v>
+      </c>
+      <c r="O18">
+        <v>88</v>
+      </c>
+      <c r="P18">
+        <v>88</v>
+      </c>
+      <c r="Q18">
         <v>89</v>
       </c>
-      <c r="O18">
-        <v>1.154700538379251</v>
-      </c>
-      <c r="P18">
-        <v>88</v>
-      </c>
-      <c r="Q18">
-        <v>88</v>
-      </c>
       <c r="R18">
+        <v>90</v>
+      </c>
+      <c r="S18">
+        <v>90</v>
+      </c>
+      <c r="T18">
         <v>89</v>
-      </c>
-      <c r="S18">
-        <v>90</v>
-      </c>
-      <c r="T18">
-        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1629,25 +1628,25 @@
         <v>37.5</v>
       </c>
       <c r="D19">
+        <v>3.535533905932738</v>
+      </c>
+      <c r="E19">
+        <v>35</v>
+      </c>
+      <c r="F19">
+        <v>36.25</v>
+      </c>
+      <c r="G19">
         <v>37.5</v>
       </c>
-      <c r="E19">
-        <v>3.535533905932738</v>
-      </c>
-      <c r="F19">
-        <v>35</v>
-      </c>
-      <c r="G19">
-        <v>36.25</v>
-      </c>
       <c r="H19">
+        <v>38.75</v>
+      </c>
+      <c r="I19">
+        <v>40</v>
+      </c>
+      <c r="J19">
         <v>37.5</v>
-      </c>
-      <c r="I19">
-        <v>38.75</v>
-      </c>
-      <c r="J19">
-        <v>40</v>
       </c>
       <c r="L19">
         <v>2</v>
@@ -1656,25 +1655,25 @@
         <v>87.5</v>
       </c>
       <c r="N19">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="O19">
+        <v>87</v>
+      </c>
+      <c r="P19">
+        <v>87.25</v>
+      </c>
+      <c r="Q19">
         <v>87.5</v>
       </c>
-      <c r="O19">
-        <v>0.7071067811865476</v>
-      </c>
-      <c r="P19">
-        <v>87</v>
-      </c>
-      <c r="Q19">
-        <v>87.25</v>
-      </c>
       <c r="R19">
+        <v>87.75</v>
+      </c>
+      <c r="S19">
+        <v>88</v>
+      </c>
+      <c r="T19">
         <v>87.5</v>
-      </c>
-      <c r="S19">
-        <v>87.75</v>
-      </c>
-      <c r="T19">
-        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1688,25 +1687,25 @@
         <v>41.6</v>
       </c>
       <c r="D20">
+        <v>8.181279443542637</v>
+      </c>
+      <c r="E20">
+        <v>27</v>
+      </c>
+      <c r="F20">
+        <v>36.5</v>
+      </c>
+      <c r="G20">
         <v>44</v>
       </c>
-      <c r="E20">
-        <v>8.181279443542637</v>
-      </c>
-      <c r="F20">
-        <v>27</v>
-      </c>
-      <c r="G20">
-        <v>36.5</v>
-      </c>
       <c r="H20">
+        <v>45</v>
+      </c>
+      <c r="I20">
+        <v>55</v>
+      </c>
+      <c r="J20">
         <v>44</v>
-      </c>
-      <c r="I20">
-        <v>45</v>
-      </c>
-      <c r="J20">
-        <v>55</v>
       </c>
       <c r="L20">
         <v>10</v>
@@ -1715,25 +1714,25 @@
         <v>90.3</v>
       </c>
       <c r="N20">
-        <v>90</v>
+        <v>1.251665557034572</v>
       </c>
       <c r="O20">
-        <v>1.251665557034572</v>
+        <v>88</v>
       </c>
       <c r="P20">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q20">
         <v>90</v>
       </c>
       <c r="R20">
-        <v>90</v>
+        <v>90.75</v>
       </c>
       <c r="S20">
-        <v>90.75</v>
+        <v>93</v>
       </c>
       <c r="T20">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1747,25 +1746,25 @@
         <v>40.5</v>
       </c>
       <c r="D21">
+        <v>3.696845502136472</v>
+      </c>
+      <c r="E21">
+        <v>35</v>
+      </c>
+      <c r="F21">
+        <v>40.25</v>
+      </c>
+      <c r="G21">
         <v>42</v>
       </c>
-      <c r="E21">
-        <v>3.696845502136472</v>
-      </c>
-      <c r="F21">
-        <v>35</v>
-      </c>
-      <c r="G21">
-        <v>40.25</v>
-      </c>
       <c r="H21">
+        <v>42.25</v>
+      </c>
+      <c r="I21">
+        <v>43</v>
+      </c>
+      <c r="J21">
         <v>42</v>
-      </c>
-      <c r="I21">
-        <v>42.25</v>
-      </c>
-      <c r="J21">
-        <v>43</v>
       </c>
       <c r="L21">
         <v>4</v>
@@ -1774,25 +1773,25 @@
         <v>90.25</v>
       </c>
       <c r="N21">
+        <v>2.217355782608345</v>
+      </c>
+      <c r="O21">
+        <v>87</v>
+      </c>
+      <c r="P21">
+        <v>90</v>
+      </c>
+      <c r="Q21">
         <v>91</v>
       </c>
-      <c r="O21">
-        <v>2.217355782608345</v>
-      </c>
-      <c r="P21">
-        <v>87</v>
-      </c>
-      <c r="Q21">
-        <v>90</v>
-      </c>
       <c r="R21">
+        <v>91.25</v>
+      </c>
+      <c r="S21">
+        <v>92</v>
+      </c>
+      <c r="T21">
         <v>91</v>
-      </c>
-      <c r="S21">
-        <v>91.25</v>
-      </c>
-      <c r="T21">
-        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1805,7 +1804,7 @@
       <c r="C22">
         <v>10</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>10</v>
       </c>
       <c r="F22">
@@ -1829,7 +1828,7 @@
       <c r="M22">
         <v>85</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>85</v>
       </c>
       <c r="P22">
@@ -1858,7 +1857,7 @@
       <c r="C23">
         <v>35</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>35</v>
       </c>
       <c r="F23">
@@ -1882,7 +1881,7 @@
       <c r="M23">
         <v>90</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>90</v>
       </c>
       <c r="P23">
@@ -1911,7 +1910,7 @@
       <c r="C24">
         <v>10</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>10</v>
       </c>
       <c r="F24">
@@ -1935,7 +1934,7 @@
       <c r="M24">
         <v>86</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>86</v>
       </c>
       <c r="P24">
@@ -1965,25 +1964,25 @@
         <v>55</v>
       </c>
       <c r="D25">
+        <v>63.63961030678928</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <v>32.5</v>
+      </c>
+      <c r="G25">
         <v>55</v>
       </c>
-      <c r="E25">
-        <v>63.63961030678928</v>
-      </c>
-      <c r="F25">
-        <v>10</v>
-      </c>
-      <c r="G25">
-        <v>32.5</v>
-      </c>
       <c r="H25">
+        <v>77.5</v>
+      </c>
+      <c r="I25">
+        <v>100</v>
+      </c>
+      <c r="J25">
         <v>55</v>
-      </c>
-      <c r="I25">
-        <v>77.5</v>
-      </c>
-      <c r="J25">
-        <v>100</v>
       </c>
       <c r="L25">
         <v>2</v>
@@ -1992,25 +1991,25 @@
         <v>88.5</v>
       </c>
       <c r="N25">
+        <v>2.121320343559642</v>
+      </c>
+      <c r="O25">
+        <v>87</v>
+      </c>
+      <c r="P25">
+        <v>87.75</v>
+      </c>
+      <c r="Q25">
         <v>88.5</v>
       </c>
-      <c r="O25">
-        <v>2.121320343559642</v>
-      </c>
-      <c r="P25">
-        <v>87</v>
-      </c>
-      <c r="Q25">
-        <v>87.75</v>
-      </c>
       <c r="R25">
+        <v>89.25</v>
+      </c>
+      <c r="S25">
+        <v>90</v>
+      </c>
+      <c r="T25">
         <v>88.5</v>
-      </c>
-      <c r="S25">
-        <v>89.25</v>
-      </c>
-      <c r="T25">
-        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2024,25 +2023,25 @@
         <v>25.85714285714286</v>
       </c>
       <c r="D26">
+        <v>12.37509018726155</v>
+      </c>
+      <c r="E26">
+        <v>12</v>
+      </c>
+      <c r="F26">
+        <v>16</v>
+      </c>
+      <c r="G26">
         <v>26</v>
       </c>
-      <c r="E26">
-        <v>12.37509018726155</v>
-      </c>
-      <c r="F26">
-        <v>12</v>
-      </c>
-      <c r="G26">
-        <v>16</v>
-      </c>
       <c r="H26">
+        <v>33</v>
+      </c>
+      <c r="I26">
+        <v>45</v>
+      </c>
+      <c r="J26">
         <v>26</v>
-      </c>
-      <c r="I26">
-        <v>33</v>
-      </c>
-      <c r="J26">
-        <v>45</v>
       </c>
       <c r="L26">
         <v>7</v>
@@ -2051,25 +2050,25 @@
         <v>87.71428571428571</v>
       </c>
       <c r="N26">
-        <v>88</v>
+        <v>3.039423504234847</v>
       </c>
       <c r="O26">
-        <v>3.039423504234847</v>
+        <v>84</v>
       </c>
       <c r="P26">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q26">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="R26">
-        <v>88</v>
+        <v>90.5</v>
       </c>
       <c r="S26">
-        <v>90.5</v>
+        <v>91</v>
       </c>
       <c r="T26">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2082,7 +2081,7 @@
       <c r="C27">
         <v>14</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>14</v>
       </c>
       <c r="F27">
@@ -2106,7 +2105,7 @@
       <c r="M27">
         <v>88</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>88</v>
       </c>
       <c r="P27">
@@ -2136,25 +2135,25 @@
         <v>32.05333333333333</v>
       </c>
       <c r="D28">
+        <v>28.0038092646935</v>
+      </c>
+      <c r="E28">
+        <v>11</v>
+      </c>
+      <c r="F28">
+        <v>14</v>
+      </c>
+      <c r="G28">
         <v>20</v>
       </c>
-      <c r="E28">
-        <v>28.0038092646935</v>
-      </c>
-      <c r="F28">
-        <v>11</v>
-      </c>
-      <c r="G28">
-        <v>14</v>
-      </c>
       <c r="H28">
+        <v>36.5</v>
+      </c>
+      <c r="I28">
+        <v>155</v>
+      </c>
+      <c r="J28">
         <v>20</v>
-      </c>
-      <c r="I28">
-        <v>36.5</v>
-      </c>
-      <c r="J28">
-        <v>155</v>
       </c>
       <c r="L28">
         <v>75</v>
@@ -2163,25 +2162,25 @@
         <v>88.28</v>
       </c>
       <c r="N28">
-        <v>88</v>
+        <v>2.64861003832862</v>
       </c>
       <c r="O28">
-        <v>2.64861003832862</v>
+        <v>82</v>
       </c>
       <c r="P28">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q28">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R28">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="S28">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="T28">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2195,25 +2194,25 @@
         <v>31.75</v>
       </c>
       <c r="D29">
+        <v>13.64734406395618</v>
+      </c>
+      <c r="E29">
+        <v>19</v>
+      </c>
+      <c r="F29">
+        <v>20.5</v>
+      </c>
+      <c r="G29">
         <v>31.5</v>
       </c>
-      <c r="E29">
-        <v>13.64734406395618</v>
-      </c>
-      <c r="F29">
-        <v>19</v>
-      </c>
-      <c r="G29">
-        <v>20.5</v>
-      </c>
       <c r="H29">
+        <v>42.75</v>
+      </c>
+      <c r="I29">
+        <v>45</v>
+      </c>
+      <c r="J29">
         <v>31.5</v>
-      </c>
-      <c r="I29">
-        <v>42.75</v>
-      </c>
-      <c r="J29">
-        <v>45</v>
       </c>
       <c r="L29">
         <v>4</v>
@@ -2222,25 +2221,25 @@
         <v>89.75</v>
       </c>
       <c r="N29">
-        <v>90</v>
+        <v>2.629955639676584</v>
       </c>
       <c r="O29">
-        <v>2.629955639676584</v>
+        <v>87</v>
       </c>
       <c r="P29">
-        <v>87</v>
+        <v>87.75</v>
       </c>
       <c r="Q29">
-        <v>87.75</v>
+        <v>90</v>
       </c>
       <c r="R29">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="S29">
         <v>92</v>
       </c>
       <c r="T29">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2254,10 +2253,10 @@
         <v>11.33333333333333</v>
       </c>
       <c r="D30">
-        <v>10</v>
+        <v>2.309401076758503</v>
       </c>
       <c r="E30">
-        <v>2.309401076758503</v>
+        <v>10</v>
       </c>
       <c r="F30">
         <v>10</v>
@@ -2266,13 +2265,13 @@
         <v>10</v>
       </c>
       <c r="H30">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I30">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J30">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L30">
         <v>3</v>
@@ -2281,25 +2280,25 @@
         <v>85</v>
       </c>
       <c r="N30">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="P30">
-        <v>84</v>
+        <v>84.5</v>
       </c>
       <c r="Q30">
-        <v>84.5</v>
+        <v>85</v>
       </c>
       <c r="R30">
-        <v>85</v>
+        <v>85.5</v>
       </c>
       <c r="S30">
-        <v>85.5</v>
+        <v>86</v>
       </c>
       <c r="T30">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2313,25 +2312,25 @@
         <v>16.20930232558139</v>
       </c>
       <c r="D31">
+        <v>7.856232114502199</v>
+      </c>
+      <c r="E31">
+        <v>9</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31">
         <v>15</v>
       </c>
-      <c r="E31">
-        <v>7.856232114502199</v>
-      </c>
-      <c r="F31">
-        <v>9</v>
-      </c>
-      <c r="G31">
-        <v>10</v>
-      </c>
       <c r="H31">
+        <v>19</v>
+      </c>
+      <c r="I31">
+        <v>45</v>
+      </c>
+      <c r="J31">
         <v>15</v>
-      </c>
-      <c r="I31">
-        <v>19</v>
-      </c>
-      <c r="J31">
-        <v>45</v>
       </c>
       <c r="L31">
         <v>86</v>
@@ -2340,25 +2339,25 @@
         <v>86.93023255813954</v>
       </c>
       <c r="N31">
+        <v>2.027984787472927</v>
+      </c>
+      <c r="O31">
+        <v>82</v>
+      </c>
+      <c r="P31">
+        <v>85</v>
+      </c>
+      <c r="Q31">
         <v>87</v>
       </c>
-      <c r="O31">
-        <v>2.027984787472927</v>
-      </c>
-      <c r="P31">
-        <v>82</v>
-      </c>
-      <c r="Q31">
-        <v>85</v>
-      </c>
       <c r="R31">
+        <v>89</v>
+      </c>
+      <c r="S31">
+        <v>91</v>
+      </c>
+      <c r="T31">
         <v>87</v>
-      </c>
-      <c r="S31">
-        <v>89</v>
-      </c>
-      <c r="T31">
-        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2372,25 +2371,25 @@
         <v>22.25</v>
       </c>
       <c r="D32">
+        <v>15.17399090549352</v>
+      </c>
+      <c r="E32">
+        <v>14</v>
+      </c>
+      <c r="F32">
+        <v>14.75</v>
+      </c>
+      <c r="G32">
         <v>15</v>
       </c>
-      <c r="E32">
-        <v>15.17399090549352</v>
-      </c>
-      <c r="F32">
-        <v>14</v>
-      </c>
-      <c r="G32">
-        <v>14.75</v>
-      </c>
       <c r="H32">
+        <v>22.5</v>
+      </c>
+      <c r="I32">
+        <v>45</v>
+      </c>
+      <c r="J32">
         <v>15</v>
-      </c>
-      <c r="I32">
-        <v>22.5</v>
-      </c>
-      <c r="J32">
-        <v>45</v>
       </c>
       <c r="L32">
         <v>4</v>
@@ -2399,25 +2398,25 @@
         <v>86.75</v>
       </c>
       <c r="N32">
+        <v>2.06155281280883</v>
+      </c>
+      <c r="O32">
+        <v>85</v>
+      </c>
+      <c r="P32">
+        <v>85</v>
+      </c>
+      <c r="Q32">
         <v>86.5</v>
       </c>
-      <c r="O32">
-        <v>2.06155281280883</v>
-      </c>
-      <c r="P32">
-        <v>85</v>
-      </c>
-      <c r="Q32">
-        <v>85</v>
-      </c>
       <c r="R32">
+        <v>88.25</v>
+      </c>
+      <c r="S32">
+        <v>89</v>
+      </c>
+      <c r="T32">
         <v>86.5</v>
-      </c>
-      <c r="S32">
-        <v>88.25</v>
-      </c>
-      <c r="T32">
-        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2431,25 +2430,25 @@
         <v>43.51351351351352</v>
       </c>
       <c r="D33">
+        <v>57.45559716551248</v>
+      </c>
+      <c r="E33">
+        <v>12</v>
+      </c>
+      <c r="F33">
+        <v>20</v>
+      </c>
+      <c r="G33">
         <v>33</v>
       </c>
-      <c r="E33">
-        <v>57.45559716551248</v>
-      </c>
-      <c r="F33">
-        <v>12</v>
-      </c>
-      <c r="G33">
-        <v>20</v>
-      </c>
       <c r="H33">
+        <v>40</v>
+      </c>
+      <c r="I33">
+        <v>275</v>
+      </c>
+      <c r="J33">
         <v>33</v>
-      </c>
-      <c r="I33">
-        <v>40</v>
-      </c>
-      <c r="J33">
-        <v>275</v>
       </c>
       <c r="L33">
         <v>37</v>
@@ -2458,25 +2457,25 @@
         <v>89.21621621621621</v>
       </c>
       <c r="N33">
-        <v>90</v>
+        <v>2.001875997035657</v>
       </c>
       <c r="O33">
-        <v>2.001875997035657</v>
+        <v>86</v>
       </c>
       <c r="P33">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q33">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="R33">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S33">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="T33">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2490,25 +2489,25 @@
         <v>14</v>
       </c>
       <c r="D34">
+        <v>5.70087712549569</v>
+      </c>
+      <c r="E34">
+        <v>9</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34">
         <v>11</v>
       </c>
-      <c r="E34">
-        <v>5.70087712549569</v>
-      </c>
-      <c r="F34">
-        <v>9</v>
-      </c>
-      <c r="G34">
-        <v>10</v>
-      </c>
       <c r="H34">
+        <v>18</v>
+      </c>
+      <c r="I34">
+        <v>22</v>
+      </c>
+      <c r="J34">
         <v>11</v>
-      </c>
-      <c r="I34">
-        <v>18</v>
-      </c>
-      <c r="J34">
-        <v>22</v>
       </c>
       <c r="L34">
         <v>5</v>
@@ -2517,25 +2516,25 @@
         <v>87.2</v>
       </c>
       <c r="N34">
+        <v>2.588435821108957</v>
+      </c>
+      <c r="O34">
+        <v>84</v>
+      </c>
+      <c r="P34">
+        <v>86</v>
+      </c>
+      <c r="Q34">
         <v>87</v>
       </c>
-      <c r="O34">
-        <v>2.588435821108957</v>
-      </c>
-      <c r="P34">
-        <v>84</v>
-      </c>
-      <c r="Q34">
-        <v>86</v>
-      </c>
       <c r="R34">
+        <v>88</v>
+      </c>
+      <c r="S34">
+        <v>91</v>
+      </c>
+      <c r="T34">
         <v>87</v>
-      </c>
-      <c r="S34">
-        <v>88</v>
-      </c>
-      <c r="T34">
-        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2549,25 +2548,25 @@
         <v>29.67692307692308</v>
       </c>
       <c r="D35">
+        <v>24.6976208125134</v>
+      </c>
+      <c r="E35">
+        <v>8</v>
+      </c>
+      <c r="F35">
+        <v>16</v>
+      </c>
+      <c r="G35">
         <v>23.5</v>
       </c>
-      <c r="E35">
-        <v>24.6976208125134</v>
-      </c>
-      <c r="F35">
-        <v>8</v>
-      </c>
-      <c r="G35">
-        <v>16</v>
-      </c>
       <c r="H35">
+        <v>35</v>
+      </c>
+      <c r="I35">
+        <v>330</v>
+      </c>
+      <c r="J35">
         <v>23.5</v>
-      </c>
-      <c r="I35">
-        <v>35</v>
-      </c>
-      <c r="J35">
-        <v>330</v>
       </c>
       <c r="L35">
         <v>390</v>
@@ -2576,25 +2575,25 @@
         <v>88.48461538461538</v>
       </c>
       <c r="N35">
-        <v>88</v>
+        <v>2.429154376073313</v>
       </c>
       <c r="O35">
-        <v>2.429154376073313</v>
+        <v>82</v>
       </c>
       <c r="P35">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Q35">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R35">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="S35">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="T35">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2608,25 +2607,25 @@
         <v>26.49230769230769</v>
       </c>
       <c r="D36">
+        <v>19.04117502030392</v>
+      </c>
+      <c r="E36">
+        <v>9</v>
+      </c>
+      <c r="F36">
+        <v>16</v>
+      </c>
+      <c r="G36">
         <v>22</v>
       </c>
-      <c r="E36">
-        <v>19.04117502030392</v>
-      </c>
-      <c r="F36">
-        <v>9</v>
-      </c>
-      <c r="G36">
-        <v>16</v>
-      </c>
       <c r="H36">
+        <v>30</v>
+      </c>
+      <c r="I36">
+        <v>130</v>
+      </c>
+      <c r="J36">
         <v>22</v>
-      </c>
-      <c r="I36">
-        <v>30</v>
-      </c>
-      <c r="J36">
-        <v>130</v>
       </c>
       <c r="L36">
         <v>65</v>
@@ -2635,25 +2634,25 @@
         <v>88.84615384615384</v>
       </c>
       <c r="N36">
+        <v>2.488917744414535</v>
+      </c>
+      <c r="O36">
+        <v>84</v>
+      </c>
+      <c r="P36">
+        <v>87</v>
+      </c>
+      <c r="Q36">
         <v>89</v>
       </c>
-      <c r="O36">
-        <v>2.488917744414535</v>
-      </c>
-      <c r="P36">
-        <v>84</v>
-      </c>
-      <c r="Q36">
-        <v>87</v>
-      </c>
       <c r="R36">
+        <v>90</v>
+      </c>
+      <c r="S36">
+        <v>95</v>
+      </c>
+      <c r="T36">
         <v>89</v>
-      </c>
-      <c r="S36">
-        <v>90</v>
-      </c>
-      <c r="T36">
-        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2667,25 +2666,25 @@
         <v>54.6</v>
       </c>
       <c r="D37">
+        <v>22.51024458132588</v>
+      </c>
+      <c r="E37">
+        <v>12</v>
+      </c>
+      <c r="F37">
+        <v>40.5</v>
+      </c>
+      <c r="G37">
         <v>56</v>
       </c>
-      <c r="E37">
-        <v>22.51024458132588</v>
-      </c>
-      <c r="F37">
-        <v>12</v>
-      </c>
-      <c r="G37">
-        <v>40.5</v>
-      </c>
       <c r="H37">
+        <v>70</v>
+      </c>
+      <c r="I37">
+        <v>80</v>
+      </c>
+      <c r="J37">
         <v>56</v>
-      </c>
-      <c r="I37">
-        <v>70</v>
-      </c>
-      <c r="J37">
-        <v>80</v>
       </c>
       <c r="L37">
         <v>10</v>
@@ -2694,25 +2693,25 @@
         <v>89.09999999999999</v>
       </c>
       <c r="N37">
+        <v>2.766867462592951</v>
+      </c>
+      <c r="O37">
+        <v>84</v>
+      </c>
+      <c r="P37">
+        <v>88</v>
+      </c>
+      <c r="Q37">
         <v>89.5</v>
       </c>
-      <c r="O37">
-        <v>2.766867462592951</v>
-      </c>
-      <c r="P37">
-        <v>84</v>
-      </c>
-      <c r="Q37">
-        <v>88</v>
-      </c>
       <c r="R37">
+        <v>91</v>
+      </c>
+      <c r="S37">
+        <v>93</v>
+      </c>
+      <c r="T37">
         <v>89.5</v>
-      </c>
-      <c r="S37">
-        <v>91</v>
-      </c>
-      <c r="T37">
-        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -2725,7 +2724,7 @@
       <c r="C38">
         <v>18</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>18</v>
       </c>
       <c r="F38">
@@ -2749,7 +2748,7 @@
       <c r="M38">
         <v>85</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>85</v>
       </c>
       <c r="P38">
@@ -2779,25 +2778,25 @@
         <v>24</v>
       </c>
       <c r="D39">
+        <v>7.293833011524188</v>
+      </c>
+      <c r="E39">
+        <v>17</v>
+      </c>
+      <c r="F39">
+        <v>19</v>
+      </c>
+      <c r="G39">
         <v>20</v>
       </c>
-      <c r="E39">
-        <v>7.293833011524188</v>
-      </c>
-      <c r="F39">
-        <v>17</v>
-      </c>
-      <c r="G39">
-        <v>19</v>
-      </c>
       <c r="H39">
+        <v>28.5</v>
+      </c>
+      <c r="I39">
+        <v>40</v>
+      </c>
+      <c r="J39">
         <v>20</v>
-      </c>
-      <c r="I39">
-        <v>28.5</v>
-      </c>
-      <c r="J39">
-        <v>40</v>
       </c>
       <c r="L39">
         <v>16</v>
@@ -2806,25 +2805,25 @@
         <v>87.5625</v>
       </c>
       <c r="N39">
+        <v>1.896268265128469</v>
+      </c>
+      <c r="O39">
+        <v>84</v>
+      </c>
+      <c r="P39">
+        <v>86</v>
+      </c>
+      <c r="Q39">
         <v>87.5</v>
       </c>
-      <c r="O39">
-        <v>1.896268265128469</v>
-      </c>
-      <c r="P39">
-        <v>84</v>
-      </c>
-      <c r="Q39">
-        <v>86</v>
-      </c>
       <c r="R39">
+        <v>88.25</v>
+      </c>
+      <c r="S39">
+        <v>92</v>
+      </c>
+      <c r="T39">
         <v>87.5</v>
-      </c>
-      <c r="S39">
-        <v>88.25</v>
-      </c>
-      <c r="T39">
-        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -2838,25 +2837,25 @@
         <v>21.56521739130435</v>
       </c>
       <c r="D40">
+        <v>12.04848571004416</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>16</v>
+      </c>
+      <c r="G40">
         <v>19</v>
       </c>
-      <c r="E40">
-        <v>12.04848571004416</v>
-      </c>
-      <c r="F40">
-        <v>10</v>
-      </c>
-      <c r="G40">
-        <v>16</v>
-      </c>
       <c r="H40">
+        <v>23</v>
+      </c>
+      <c r="I40">
+        <v>65</v>
+      </c>
+      <c r="J40">
         <v>19</v>
-      </c>
-      <c r="I40">
-        <v>23</v>
-      </c>
-      <c r="J40">
-        <v>65</v>
       </c>
       <c r="L40">
         <v>23</v>
@@ -2865,25 +2864,25 @@
         <v>87.73913043478261</v>
       </c>
       <c r="N40">
-        <v>88</v>
+        <v>2.19953282858693</v>
       </c>
       <c r="O40">
-        <v>2.19953282858693</v>
+        <v>84</v>
       </c>
       <c r="P40">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q40">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R40">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="S40">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T40">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -2897,25 +2896,25 @@
         <v>16.19924812030075</v>
       </c>
       <c r="D41">
+        <v>11.77276034857571</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="G41">
         <v>12</v>
       </c>
-      <c r="E41">
-        <v>11.77276034857571</v>
-      </c>
-      <c r="F41">
-        <v>6</v>
-      </c>
-      <c r="G41">
-        <v>10</v>
-      </c>
       <c r="H41">
+        <v>18</v>
+      </c>
+      <c r="I41">
+        <v>100</v>
+      </c>
+      <c r="J41">
         <v>12</v>
-      </c>
-      <c r="I41">
-        <v>18</v>
-      </c>
-      <c r="J41">
-        <v>100</v>
       </c>
       <c r="L41">
         <v>266</v>
@@ -2924,25 +2923,25 @@
         <v>86.77067669172932</v>
       </c>
       <c r="N41">
+        <v>1.878388789899661</v>
+      </c>
+      <c r="O41">
+        <v>83</v>
+      </c>
+      <c r="P41">
+        <v>85.25</v>
+      </c>
+      <c r="Q41">
         <v>87</v>
       </c>
-      <c r="O41">
-        <v>1.878388789899661</v>
-      </c>
-      <c r="P41">
-        <v>83</v>
-      </c>
-      <c r="Q41">
-        <v>85.25</v>
-      </c>
       <c r="R41">
+        <v>88</v>
+      </c>
+      <c r="S41">
+        <v>92</v>
+      </c>
+      <c r="T41">
         <v>87</v>
-      </c>
-      <c r="S41">
-        <v>88</v>
-      </c>
-      <c r="T41">
-        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/02-output/wine_country_stats/Q2E_South Africa.xlsx
+++ b/02-output/wine_country_stats/Q2E_South Africa.xlsx
@@ -14,18 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Statistic</t>
   </si>
   <si>
-    <t>South Africa price price</t>
-  </si>
-  <si>
-    <t>_1</t>
-  </si>
-  <si>
-    <t>South Africa points points</t>
+    <t>South Africa_priceprice</t>
+  </si>
+  <si>
+    <t>South Africa_pointspoints</t>
   </si>
   <si>
     <t>Count</t>
@@ -407,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -419,12 +416,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,95 +430,92 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
       </c>
       <c r="B2">
         <v>1278</v>
       </c>
-      <c r="D2">
+      <c r="C2">
         <v>1278</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>24.75352112676056</v>
       </c>
-      <c r="D3">
+      <c r="C3">
         <v>87.85758998435055</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>21.94224923769633</v>
       </c>
-      <c r="D4">
+      <c r="C4">
         <v>2.340960283445698</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>6</v>
       </c>
-      <c r="D5">
+      <c r="C5">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>13</v>
       </c>
-      <c r="D6">
+      <c r="C6">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>19</v>
       </c>
-      <c r="D7">
+      <c r="C7">
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>29</v>
       </c>
-      <c r="D8">
+      <c r="C8">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>330</v>
       </c>
-      <c r="D9">
+      <c r="C9">
         <v>95</v>
       </c>
     </row>
